--- a/region2017/layers/spp_status_mhi2017.xlsx
+++ b/region2017/layers/spp_status_mhi2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="2400" windowWidth="26160" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="8180" yWindow="4640" windowWidth="26160" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="spp_status_mhi2017" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="324">
   <si>
     <t>rgn_id</t>
   </si>
@@ -791,9 +791,6 @@
     <t>Coastal morning glory</t>
   </si>
   <si>
-    <t>Coastal sandalwood</t>
-  </si>
-  <si>
     <t>Coconut palm</t>
   </si>
   <si>
@@ -927,13 +924,98 @@
   </si>
   <si>
     <t>ʻAnaunau</t>
+  </si>
+  <si>
+    <t>ʻĀkia, kauhi</t>
+  </si>
+  <si>
+    <t>Wikstroemia spp</t>
+  </si>
+  <si>
+    <t>added</t>
+  </si>
+  <si>
+    <t>Kāwelu, ʻEmoloa</t>
+  </si>
+  <si>
+    <t>Hawaiian Nama</t>
+  </si>
+  <si>
+    <t>Schiedea</t>
+  </si>
+  <si>
+    <t>Pigweed</t>
+  </si>
+  <si>
+    <t>Beach sandalwood</t>
+  </si>
+  <si>
+    <t>ʻIliahialoʻe</t>
+  </si>
+  <si>
+    <t>Beach spurge</t>
+  </si>
+  <si>
+    <t>Koko, ʻakoko</t>
+  </si>
+  <si>
+    <t>Chamaesyce degeneri</t>
+  </si>
+  <si>
+    <t>Melanthera integrifolia, Lipochaeta integrifolia</t>
+  </si>
+  <si>
+    <t>Seaside heliotrope</t>
+  </si>
+  <si>
+    <t>ʻŌhiʻa lehua</t>
+  </si>
+  <si>
+    <t>Metrosideros polymorpha</t>
+  </si>
+  <si>
+    <t>Pōpolo</t>
+  </si>
+  <si>
+    <t>Prickly poppy</t>
+  </si>
+  <si>
+    <t>Aregemone glauca</t>
+  </si>
+  <si>
+    <t>Pua kala</t>
+  </si>
+  <si>
+    <t>Osteomeles anthyllidifolia</t>
+  </si>
+  <si>
+    <r>
+      <t>ʻ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Ūlei, eluehe, uʻulei</t>
+    </r>
+  </si>
+  <si>
+    <t>Wiliwili</t>
+  </si>
+  <si>
+    <t>Erythrina sandwicensis</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -945,6 +1027,27 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -967,16 +1070,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1252,20 +1372,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G469"/>
+  <dimension ref="A1:I475"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection sqref="A1:G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1288,44 +1408,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>208</v>
       </c>
+      <c r="C2" t="s">
+        <v>308</v>
+      </c>
       <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" t="s">
         <v>299</v>
       </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" t="s">
-        <v>298</v>
-      </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1333,107 +1465,113 @@
         <v>208</v>
       </c>
       <c r="D4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" t="s">
         <v>284</v>
       </c>
-      <c r="E4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4">
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>208</v>
       </c>
+      <c r="C9" t="s">
+        <v>272</v>
+      </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1441,16 +1579,16 @@
         <v>208</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1458,33 +1596,42 @@
         <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>208</v>
       </c>
+      <c r="C12" t="s">
+        <v>303</v>
+      </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>129</v>
+      </c>
+      <c r="F12" t="s">
+        <v>323</v>
       </c>
       <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1492,59 +1639,53 @@
         <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>208</v>
       </c>
-      <c r="C14" t="s">
-        <v>248</v>
-      </c>
       <c r="D14" t="s">
-        <v>291</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>208</v>
       </c>
-      <c r="C15" t="s">
-        <v>249</v>
-      </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>197</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1552,13 +1693,13 @@
         <v>208</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="D16" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1571,14 +1712,11 @@
       <c r="B17" t="s">
         <v>208</v>
       </c>
-      <c r="C17" t="s">
-        <v>251</v>
-      </c>
       <c r="D17" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1591,17 +1729,11 @@
       <c r="B18" t="s">
         <v>208</v>
       </c>
-      <c r="C18" t="s">
-        <v>252</v>
-      </c>
       <c r="D18" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1614,17 +1746,17 @@
       <c r="B19" t="s">
         <v>208</v>
       </c>
-      <c r="C19" t="s">
-        <v>253</v>
-      </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>108</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1635,16 +1767,13 @@
         <v>208</v>
       </c>
       <c r="C20" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1658,13 +1787,13 @@
         <v>208</v>
       </c>
       <c r="C21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D21" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1677,14 +1806,14 @@
       <c r="B22" t="s">
         <v>208</v>
       </c>
+      <c r="C22" t="s">
+        <v>261</v>
+      </c>
       <c r="D22" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1697,20 +1826,14 @@
       <c r="B23" t="s">
         <v>208</v>
       </c>
-      <c r="C23" t="s">
-        <v>124</v>
-      </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="G23">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1720,20 +1843,14 @@
       <c r="B24" t="s">
         <v>208</v>
       </c>
-      <c r="C24" t="s">
-        <v>256</v>
-      </c>
       <c r="D24" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="G24">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1743,20 +1860,14 @@
       <c r="B25" t="s">
         <v>208</v>
       </c>
-      <c r="C25" t="s">
-        <v>258</v>
-      </c>
       <c r="D25" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="G25">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1766,14 +1877,20 @@
       <c r="B26" t="s">
         <v>208</v>
       </c>
+      <c r="C26" t="s">
+        <v>258</v>
+      </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>259</v>
       </c>
       <c r="E26" t="s">
-        <v>184</v>
+        <v>121</v>
+      </c>
+      <c r="F26" t="s">
+        <v>323</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1783,17 +1900,11 @@
       <c r="B27" t="s">
         <v>208</v>
       </c>
-      <c r="C27" t="s">
-        <v>259</v>
-      </c>
       <c r="D27" t="s">
-        <v>260</v>
+        <v>181</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1806,11 +1917,14 @@
       <c r="B28" t="s">
         <v>208</v>
       </c>
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="E28" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1818,22 +1932,25 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
         <v>208</v>
       </c>
+      <c r="C29" t="s">
+        <v>306</v>
+      </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>307</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>323</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1843,11 +1960,14 @@
       <c r="B30" t="s">
         <v>208</v>
       </c>
+      <c r="C30" t="s">
+        <v>250</v>
+      </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>288</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1861,13 +1981,13 @@
         <v>208</v>
       </c>
       <c r="C31" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D31" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1880,20 +2000,20 @@
       <c r="B32" t="s">
         <v>208</v>
       </c>
-      <c r="C32" t="s">
-        <v>264</v>
-      </c>
       <c r="D32" t="s">
-        <v>263</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>311</v>
+      </c>
+      <c r="F32" t="s">
+        <v>323</v>
       </c>
       <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1901,582 +2021,645 @@
         <v>208</v>
       </c>
       <c r="D33" t="s">
-        <v>265</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" t="s">
+        <v>312</v>
+      </c>
+      <c r="D35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E36" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" t="s">
+        <v>274</v>
+      </c>
+      <c r="D37" t="s">
+        <v>273</v>
+      </c>
+      <c r="E37" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" t="s">
+        <v>278</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" t="s">
+        <v>287</v>
+      </c>
+      <c r="E39" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" t="s">
+        <v>290</v>
+      </c>
+      <c r="E40" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" t="s">
+        <v>315</v>
+      </c>
+      <c r="E41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41">
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>208</v>
-      </c>
-      <c r="D34" t="s">
-        <v>197</v>
-      </c>
-      <c r="E34" t="s">
-        <v>198</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" t="s">
-        <v>267</v>
-      </c>
-      <c r="D35" t="s">
-        <v>266</v>
-      </c>
-      <c r="E35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" t="s">
+        <v>323</v>
+      </c>
+      <c r="G42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" t="s">
+        <v>316</v>
+      </c>
+      <c r="D43" t="s">
+        <v>318</v>
+      </c>
+      <c r="E43" t="s">
+        <v>317</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" t="s">
+        <v>192</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" t="s">
+        <v>304</v>
+      </c>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" t="s">
+        <v>323</v>
+      </c>
+      <c r="G45">
+        <v>0.7</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" t="s">
+        <v>277</v>
+      </c>
+      <c r="D47" t="s">
+        <v>282</v>
+      </c>
+      <c r="E47" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" t="s">
+        <v>281</v>
+      </c>
+      <c r="E48" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D49" t="s">
+        <v>256</v>
+      </c>
+      <c r="E49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" t="s">
+        <v>275</v>
+      </c>
+      <c r="D50" t="s">
+        <v>279</v>
+      </c>
+      <c r="E50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" t="s">
+        <v>298</v>
+      </c>
+      <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
+        <v>323</v>
+      </c>
+      <c r="G51">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" t="s">
+        <v>297</v>
+      </c>
+      <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" t="s">
+        <v>283</v>
+      </c>
+      <c r="E53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" t="s">
+        <v>305</v>
+      </c>
+      <c r="D54" t="s">
+        <v>283</v>
+      </c>
+      <c r="E54" t="s">
+        <v>163</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" t="s">
+        <v>257</v>
+      </c>
+      <c r="D55" t="s">
+        <v>283</v>
+      </c>
+      <c r="E55" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" t="s">
         <v>268</v>
       </c>
-      <c r="E36" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>208</v>
-      </c>
-      <c r="D37" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" t="s">
-        <v>269</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="D56" t="s">
+        <v>292</v>
+      </c>
+      <c r="E56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" t="s">
+        <v>296</v>
+      </c>
+      <c r="E57" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" t="s">
+        <v>295</v>
+      </c>
+      <c r="E58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" t="s">
+        <v>294</v>
+      </c>
+      <c r="E59" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" t="s">
+        <v>313</v>
+      </c>
+      <c r="E60" t="s">
+        <v>314</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E61" t="s">
+        <v>319</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E62" t="s">
+        <v>322</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" t="s">
         <v>293</v>
       </c>
-      <c r="E38" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" t="s">
-        <v>109</v>
-      </c>
-      <c r="G38">
+      <c r="E63" t="s">
+        <v>169</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G64" s="1">
         <v>0.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>208</v>
-      </c>
-      <c r="D39" t="s">
-        <v>195</v>
-      </c>
-      <c r="E39" t="s">
-        <v>196</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>208</v>
-      </c>
-      <c r="D40" t="s">
-        <v>281</v>
-      </c>
-      <c r="E40" t="s">
-        <v>179</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>208</v>
-      </c>
-      <c r="D41" t="s">
-        <v>281</v>
-      </c>
-      <c r="E41" t="s">
-        <v>180</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" t="s">
-        <v>181</v>
-      </c>
-      <c r="E42" t="s">
-        <v>182</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>208</v>
-      </c>
-      <c r="C43" t="s">
-        <v>271</v>
-      </c>
-      <c r="D43" t="s">
-        <v>270</v>
-      </c>
-      <c r="E43" t="s">
-        <v>175</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>208</v>
-      </c>
-      <c r="D44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" t="s">
-        <v>94</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>208</v>
-      </c>
-      <c r="D45" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" t="s">
-        <v>134</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" t="s">
-        <v>194</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>208</v>
-      </c>
-      <c r="D47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E47" t="s">
-        <v>158</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>208</v>
-      </c>
-      <c r="D48" t="s">
-        <v>279</v>
-      </c>
-      <c r="E48" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>208</v>
-      </c>
-      <c r="C49" t="s">
-        <v>273</v>
-      </c>
-      <c r="D49" t="s">
-        <v>272</v>
-      </c>
-      <c r="E49" t="s">
-        <v>171</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" t="s">
-        <v>123</v>
-      </c>
-      <c r="F50" t="s">
-        <v>109</v>
-      </c>
-      <c r="G50">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" t="s">
-        <v>275</v>
-      </c>
-      <c r="D51" t="s">
-        <v>274</v>
-      </c>
-      <c r="E51" t="s">
-        <v>154</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>208</v>
-      </c>
-      <c r="D52" t="s">
-        <v>191</v>
-      </c>
-      <c r="E52" t="s">
-        <v>192</v>
-      </c>
-      <c r="F52" t="s">
-        <v>109</v>
-      </c>
-      <c r="G52">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>208</v>
-      </c>
-      <c r="D53" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
-        <v>208</v>
-      </c>
-      <c r="C54" t="s">
-        <v>276</v>
-      </c>
-      <c r="D54" t="s">
-        <v>280</v>
-      </c>
-      <c r="E54" t="s">
-        <v>160</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>208</v>
-      </c>
-      <c r="C55" t="s">
-        <v>277</v>
-      </c>
-      <c r="D55" t="s">
-        <v>282</v>
-      </c>
-      <c r="E55" t="s">
-        <v>177</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>208</v>
-      </c>
-      <c r="D56" t="s">
-        <v>189</v>
-      </c>
-      <c r="E56" t="s">
-        <v>190</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
-        <v>208</v>
-      </c>
-      <c r="C57" t="s">
-        <v>278</v>
-      </c>
-      <c r="D57" t="s">
-        <v>283</v>
-      </c>
-      <c r="E57" t="s">
-        <v>162</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
-        <v>207</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
-        <v>207</v>
-      </c>
-      <c r="C60" t="s">
-        <v>211</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G60">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>207</v>
-      </c>
-      <c r="C61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>207</v>
-      </c>
-      <c r="C62" t="s">
-        <v>215</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G62">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G63">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s">
-        <v>207</v>
-      </c>
-      <c r="C64" t="s">
-        <v>84</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2486,13 +2669,13 @@
       <c r="B65" t="s">
         <v>207</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G65" s="1">
+      <c r="C65" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65">
         <v>0.7</v>
       </c>
     </row>
@@ -2503,13 +2686,13 @@
       <c r="B66" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G66" s="1">
+      <c r="C66" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G66">
         <v>0.7</v>
       </c>
     </row>
@@ -2520,13 +2703,13 @@
       <c r="B67" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G67" s="1">
+      <c r="C67" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G67">
         <v>1</v>
       </c>
     </row>
@@ -2538,10 +2721,10 @@
         <v>207</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G68">
         <v>0.7</v>
@@ -2555,10 +2738,10 @@
         <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G69">
         <v>0.7</v>
@@ -2572,13 +2755,13 @@
         <v>207</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G70">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2589,13 +2772,13 @@
         <v>207</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G71" s="1">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2606,13 +2789,13 @@
         <v>207</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G72" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2622,14 +2805,14 @@
       <c r="B73" t="s">
         <v>207</v>
       </c>
-      <c r="C73" t="s">
-        <v>68</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G73">
-        <v>0.7</v>
+      <c r="C73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2640,10 +2823,10 @@
         <v>207</v>
       </c>
       <c r="C74" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G74">
         <v>0.7</v>
@@ -2657,13 +2840,13 @@
         <v>207</v>
       </c>
       <c r="C75" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2673,14 +2856,14 @@
       <c r="B76" t="s">
         <v>207</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G76" s="1">
-        <v>0.25</v>
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G76">
+        <v>0.7</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2690,14 +2873,14 @@
       <c r="B77" t="s">
         <v>207</v>
       </c>
-      <c r="C77" t="s">
-        <v>78</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
+      <c r="C77" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.25</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2707,14 +2890,14 @@
       <c r="B78" t="s">
         <v>207</v>
       </c>
-      <c r="C78" t="s">
-        <v>88</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G78">
-        <v>0.7</v>
+      <c r="C78" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2725,13 +2908,13 @@
         <v>207</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2742,13 +2925,13 @@
         <v>207</v>
       </c>
       <c r="C80" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2759,10 +2942,10 @@
         <v>207</v>
       </c>
       <c r="C81" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2775,14 +2958,14 @@
       <c r="B82" t="s">
         <v>207</v>
       </c>
-      <c r="C82" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82">
-        <v>0.7</v>
+      <c r="C82" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.25</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2793,10 +2976,10 @@
         <v>207</v>
       </c>
       <c r="C83" t="s">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2810,13 +2993,13 @@
         <v>207</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2827,10 +3010,10 @@
         <v>207</v>
       </c>
       <c r="C85" t="s">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2844,10 +3027,10 @@
         <v>207</v>
       </c>
       <c r="C86" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -2861,10 +3044,10 @@
         <v>207</v>
       </c>
       <c r="C87" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2875,19 +3058,16 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>6</v>
+        <v>90</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2895,19 +3075,16 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" t="s">
-        <v>9</v>
+        <v>235</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="G89">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2915,16 +3092,13 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" t="s">
-        <v>6</v>
+        <v>237</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -2935,16 +3109,13 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" t="s">
-        <v>6</v>
+        <v>239</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -2955,16 +3126,13 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" t="s">
-        <v>15</v>
-      </c>
-      <c r="F92" t="s">
-        <v>6</v>
+        <v>241</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -2975,16 +3143,13 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
-      </c>
-      <c r="E93" t="s">
-        <v>17</v>
-      </c>
-      <c r="F93" t="s">
-        <v>6</v>
+        <v>243</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -2998,16 +3163,16 @@
         <v>204</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G94">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -3018,10 +3183,10 @@
         <v>204</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F95" t="s">
         <v>9</v>
@@ -3038,10 +3203,10 @@
         <v>204</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
         <v>6</v>
@@ -3058,16 +3223,16 @@
         <v>204</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G97">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -3078,16 +3243,16 @@
         <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F98" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G98">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -3098,16 +3263,16 @@
         <v>204</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G99">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -3118,16 +3283,16 @@
         <v>204</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -3138,16 +3303,16 @@
         <v>204</v>
       </c>
       <c r="C101" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F101" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -3158,10 +3323,10 @@
         <v>204</v>
       </c>
       <c r="C102" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E102" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F102" t="s">
         <v>6</v>
@@ -3178,16 +3343,16 @@
         <v>204</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F103" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -3198,16 +3363,16 @@
         <v>204</v>
       </c>
       <c r="C104" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E104" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -3218,16 +3383,16 @@
         <v>204</v>
       </c>
       <c r="C105" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E105" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F105" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -3238,10 +3403,10 @@
         <v>204</v>
       </c>
       <c r="C106" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E106" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
         <v>6</v>
@@ -3258,10 +3423,10 @@
         <v>204</v>
       </c>
       <c r="C107" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E107" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
         <v>6</v>
@@ -3278,10 +3443,10 @@
         <v>204</v>
       </c>
       <c r="C108" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E108" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
         <v>6</v>
@@ -3298,10 +3463,10 @@
         <v>204</v>
       </c>
       <c r="C109" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E109" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F109" t="s">
         <v>6</v>
@@ -3318,16 +3483,16 @@
         <v>204</v>
       </c>
       <c r="C110" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E110" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G110">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3338,10 +3503,10 @@
         <v>204</v>
       </c>
       <c r="C111" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E111" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F111" t="s">
         <v>6</v>
@@ -3358,16 +3523,16 @@
         <v>204</v>
       </c>
       <c r="C112" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G112">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -3378,10 +3543,10 @@
         <v>204</v>
       </c>
       <c r="C113" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E113" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F113" t="s">
         <v>6</v>
@@ -3398,10 +3563,10 @@
         <v>204</v>
       </c>
       <c r="C114" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E114" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F114" t="s">
         <v>6</v>
@@ -3415,19 +3580,19 @@
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C115" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="E115" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F115" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G115">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -3435,13 +3600,13 @@
         <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E116" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F116" t="s">
         <v>9</v>
@@ -3455,19 +3620,19 @@
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C117" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F117" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G117">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -3475,36 +3640,36 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C118" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E118" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G118">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C119" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="E119" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F119" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -3512,16 +3677,19 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C120" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="E120" t="s">
-        <v>100</v>
+        <v>67</v>
+      </c>
+      <c r="F120" t="s">
+        <v>6</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -3529,76 +3697,82 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C121" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="E121" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="F121" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="G121">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C122" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="E122" t="s">
-        <v>163</v>
+        <v>35</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C123" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="E123" t="s">
-        <v>152</v>
+        <v>37</v>
+      </c>
+      <c r="F123" t="s">
+        <v>9</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C124" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="E124" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="F124" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="G124">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -3609,10 +3783,13 @@
         <v>208</v>
       </c>
       <c r="C125" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="E125" t="s">
-        <v>165</v>
+        <v>98</v>
+      </c>
+      <c r="F125" t="s">
+        <v>94</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -3626,10 +3803,10 @@
         <v>208</v>
       </c>
       <c r="C126" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="E126" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -3643,13 +3820,16 @@
         <v>208</v>
       </c>
       <c r="C127" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="E127" t="s">
-        <v>202</v>
+        <v>119</v>
+      </c>
+      <c r="F127" t="s">
+        <v>109</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -3660,10 +3840,10 @@
         <v>208</v>
       </c>
       <c r="C128" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="E128" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -3677,10 +3857,10 @@
         <v>208</v>
       </c>
       <c r="C129" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E129" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -3694,13 +3874,16 @@
         <v>208</v>
       </c>
       <c r="C130" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="E130" t="s">
-        <v>173</v>
+        <v>117</v>
+      </c>
+      <c r="F130" t="s">
+        <v>109</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -3711,10 +3894,10 @@
         <v>208</v>
       </c>
       <c r="C131" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="E131" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -3728,10 +3911,10 @@
         <v>208</v>
       </c>
       <c r="C132" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="E132" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -3745,10 +3928,10 @@
         <v>208</v>
       </c>
       <c r="C133" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="E133" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -3762,10 +3945,10 @@
         <v>208</v>
       </c>
       <c r="C134" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="E134" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -3779,13 +3962,10 @@
         <v>208</v>
       </c>
       <c r="C135" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="E135" t="s">
-        <v>115</v>
-      </c>
-      <c r="F135" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -3799,10 +3979,10 @@
         <v>208</v>
       </c>
       <c r="C136" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="E136" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -3816,13 +3996,10 @@
         <v>208</v>
       </c>
       <c r="C137" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="E137" t="s">
-        <v>111</v>
-      </c>
-      <c r="F137" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -3836,10 +4013,10 @@
         <v>208</v>
       </c>
       <c r="C138" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="E138" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -3853,13 +4030,10 @@
         <v>208</v>
       </c>
       <c r="C139" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="E139" t="s">
-        <v>106</v>
-      </c>
-      <c r="F139" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -3873,16 +4047,13 @@
         <v>208</v>
       </c>
       <c r="C140" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E140" t="s">
-        <v>125</v>
-      </c>
-      <c r="F140" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G140">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -3893,16 +4064,16 @@
         <v>208</v>
       </c>
       <c r="C141" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E141" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F141" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G141">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -3913,16 +4084,13 @@
         <v>208</v>
       </c>
       <c r="C142" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>131</v>
-      </c>
-      <c r="F142" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="G142">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -3933,10 +4101,13 @@
         <v>208</v>
       </c>
       <c r="C143" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="E143" t="s">
-        <v>184</v>
+        <v>111</v>
+      </c>
+      <c r="F143" t="s">
+        <v>94</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -3950,13 +4121,10 @@
         <v>208</v>
       </c>
       <c r="C144" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="E144" t="s">
-        <v>121</v>
-      </c>
-      <c r="F144" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -3970,10 +4138,13 @@
         <v>208</v>
       </c>
       <c r="C145" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="E145" t="s">
-        <v>156</v>
+        <v>106</v>
+      </c>
+      <c r="F145" t="s">
+        <v>94</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -3987,16 +4158,16 @@
         <v>208</v>
       </c>
       <c r="C146" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E146" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F146" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -4007,13 +4178,16 @@
         <v>208</v>
       </c>
       <c r="C147" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="E147" t="s">
-        <v>142</v>
+        <v>113</v>
+      </c>
+      <c r="F147" t="s">
+        <v>109</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -4024,13 +4198,16 @@
         <v>208</v>
       </c>
       <c r="C148" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E148" t="s">
-        <v>146</v>
+        <v>131</v>
+      </c>
+      <c r="F148" t="s">
+        <v>109</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -4041,10 +4218,10 @@
         <v>208</v>
       </c>
       <c r="C149" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="E149" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -4058,16 +4235,16 @@
         <v>208</v>
       </c>
       <c r="C150" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E150" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F150" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G150">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -4078,10 +4255,10 @@
         <v>208</v>
       </c>
       <c r="C151" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="E151" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -4095,10 +4272,13 @@
         <v>208</v>
       </c>
       <c r="C152" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="E152" t="s">
-        <v>188</v>
+        <v>129</v>
+      </c>
+      <c r="F152" t="s">
+        <v>94</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -4112,10 +4292,10 @@
         <v>208</v>
       </c>
       <c r="C153" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="E153" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -4129,10 +4309,10 @@
         <v>208</v>
       </c>
       <c r="C154" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E154" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -4146,16 +4326,13 @@
         <v>208</v>
       </c>
       <c r="C155" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E155" t="s">
-        <v>133</v>
-      </c>
-      <c r="F155" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="G155">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -4166,13 +4343,16 @@
         <v>208</v>
       </c>
       <c r="C156" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="E156" t="s">
-        <v>196</v>
+        <v>108</v>
+      </c>
+      <c r="F156" t="s">
+        <v>109</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -4183,10 +4363,10 @@
         <v>208</v>
       </c>
       <c r="C157" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="E157" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -4200,10 +4380,10 @@
         <v>208</v>
       </c>
       <c r="C158" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E158" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -4217,10 +4397,10 @@
         <v>208</v>
       </c>
       <c r="C159" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="E159" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -4234,10 +4414,10 @@
         <v>208</v>
       </c>
       <c r="C160" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="E160" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -4251,16 +4431,16 @@
         <v>208</v>
       </c>
       <c r="C161" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E161" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="F161" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -4271,10 +4451,10 @@
         <v>208</v>
       </c>
       <c r="C162" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="E162" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -4288,10 +4468,10 @@
         <v>208</v>
       </c>
       <c r="C163" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E163" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -4305,10 +4485,10 @@
         <v>208</v>
       </c>
       <c r="C164" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E164" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -4322,10 +4502,10 @@
         <v>208</v>
       </c>
       <c r="C165" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="E165" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -4339,10 +4519,10 @@
         <v>208</v>
       </c>
       <c r="C166" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E166" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -4356,16 +4536,16 @@
         <v>208</v>
       </c>
       <c r="C167" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E167" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="F167" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G167">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -4376,10 +4556,10 @@
         <v>208</v>
       </c>
       <c r="C168" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="E168" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -4393,16 +4573,13 @@
         <v>208</v>
       </c>
       <c r="C169" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E169" t="s">
-        <v>192</v>
-      </c>
-      <c r="F169" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="G169">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -4413,13 +4590,10 @@
         <v>208</v>
       </c>
       <c r="C170" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="E170" t="s">
-        <v>102</v>
-      </c>
-      <c r="F170" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -4433,10 +4607,10 @@
         <v>208</v>
       </c>
       <c r="C171" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="E171" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -4450,10 +4624,10 @@
         <v>208</v>
       </c>
       <c r="C172" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E172" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -4467,13 +4641,16 @@
         <v>208</v>
       </c>
       <c r="C173" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="E173" t="s">
-        <v>190</v>
+        <v>123</v>
+      </c>
+      <c r="F173" t="s">
+        <v>109</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -4484,10 +4661,10 @@
         <v>208</v>
       </c>
       <c r="C174" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E174" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -4498,15 +4675,18 @@
         <v>2</v>
       </c>
       <c r="B175" t="s">
-        <v>207</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G175" s="1">
+        <v>208</v>
+      </c>
+      <c r="C175" t="s">
+        <v>191</v>
+      </c>
+      <c r="E175" t="s">
+        <v>192</v>
+      </c>
+      <c r="F175" t="s">
+        <v>109</v>
+      </c>
+      <c r="G175">
         <v>0.25</v>
       </c>
     </row>
@@ -4515,16 +4695,19 @@
         <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C176" t="s">
-        <v>70</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>71</v>
+        <v>101</v>
+      </c>
+      <c r="E176" t="s">
+        <v>102</v>
+      </c>
+      <c r="F176" t="s">
+        <v>94</v>
       </c>
       <c r="G176">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -4532,16 +4715,16 @@
         <v>2</v>
       </c>
       <c r="B177" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C177" t="s">
-        <v>211</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
+      </c>
+      <c r="E177" t="s">
+        <v>160</v>
       </c>
       <c r="G177">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -4549,13 +4732,13 @@
         <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C178" t="s">
-        <v>213</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>214</v>
+        <v>176</v>
+      </c>
+      <c r="E178" t="s">
+        <v>177</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -4566,16 +4749,16 @@
         <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C179" t="s">
-        <v>215</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>216</v>
+        <v>189</v>
+      </c>
+      <c r="E179" t="s">
+        <v>190</v>
       </c>
       <c r="G179">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -4583,16 +4766,16 @@
         <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C180" t="s">
-        <v>76</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>77</v>
+        <v>161</v>
+      </c>
+      <c r="E180" t="s">
+        <v>162</v>
       </c>
       <c r="G180">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -4602,14 +4785,14 @@
       <c r="B181" t="s">
         <v>207</v>
       </c>
-      <c r="C181" t="s">
-        <v>84</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G181">
-        <v>1</v>
+      <c r="C181" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G181" s="1">
+        <v>0.25</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -4619,13 +4802,13 @@
       <c r="B182" t="s">
         <v>207</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G182" s="1">
+      <c r="C182" t="s">
+        <v>70</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G182">
         <v>0.7</v>
       </c>
     </row>
@@ -4636,13 +4819,13 @@
       <c r="B183" t="s">
         <v>207</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G183" s="1">
+      <c r="C183" t="s">
+        <v>211</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G183">
         <v>0.7</v>
       </c>
     </row>
@@ -4653,13 +4836,13 @@
       <c r="B184" t="s">
         <v>207</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G184" s="1">
+      <c r="C184" t="s">
+        <v>213</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G184">
         <v>1</v>
       </c>
     </row>
@@ -4671,10 +4854,10 @@
         <v>207</v>
       </c>
       <c r="C185" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G185">
         <v>0.7</v>
@@ -4688,10 +4871,10 @@
         <v>207</v>
       </c>
       <c r="C186" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G186">
         <v>0.7</v>
@@ -4705,13 +4888,13 @@
         <v>207</v>
       </c>
       <c r="C187" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G187">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -4722,13 +4905,13 @@
         <v>207</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G188" s="1">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -4739,13 +4922,13 @@
         <v>207</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G189" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -4755,14 +4938,14 @@
       <c r="B190" t="s">
         <v>207</v>
       </c>
-      <c r="C190" t="s">
-        <v>68</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G190">
-        <v>0.7</v>
+      <c r="C190" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G190" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -4773,10 +4956,10 @@
         <v>207</v>
       </c>
       <c r="C191" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G191">
         <v>0.7</v>
@@ -4790,13 +4973,13 @@
         <v>207</v>
       </c>
       <c r="C192" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -4806,14 +4989,14 @@
       <c r="B193" t="s">
         <v>207</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G193" s="1">
-        <v>0.25</v>
+      <c r="C193" t="s">
+        <v>82</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G193">
+        <v>0.7</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -4823,14 +5006,14 @@
       <c r="B194" t="s">
         <v>207</v>
       </c>
-      <c r="C194" t="s">
-        <v>78</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G194">
-        <v>1</v>
+      <c r="C194" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G194" s="1">
+        <v>0.25</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -4840,14 +5023,14 @@
       <c r="B195" t="s">
         <v>207</v>
       </c>
-      <c r="C195" t="s">
-        <v>88</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G195">
-        <v>0.7</v>
+      <c r="C195" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G195" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -4858,13 +5041,13 @@
         <v>207</v>
       </c>
       <c r="C196" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -4875,13 +5058,13 @@
         <v>207</v>
       </c>
       <c r="C197" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -4892,10 +5075,10 @@
         <v>207</v>
       </c>
       <c r="C198" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -4908,14 +5091,14 @@
       <c r="B199" t="s">
         <v>207</v>
       </c>
-      <c r="C199" t="s">
-        <v>90</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G199">
-        <v>0.7</v>
+      <c r="C199" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G199" s="1">
+        <v>0.25</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -4926,10 +5109,10 @@
         <v>207</v>
       </c>
       <c r="C200" t="s">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -4943,13 +5126,13 @@
         <v>207</v>
       </c>
       <c r="C201" t="s">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -4960,10 +5143,10 @@
         <v>207</v>
       </c>
       <c r="C202" t="s">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -4977,10 +5160,10 @@
         <v>207</v>
       </c>
       <c r="C203" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -4994,10 +5177,10 @@
         <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -5008,19 +5191,16 @@
         <v>2</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>4</v>
-      </c>
-      <c r="E205" t="s">
-        <v>5</v>
-      </c>
-      <c r="F205" t="s">
-        <v>6</v>
+        <v>90</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -5028,19 +5208,16 @@
         <v>2</v>
       </c>
       <c r="B206" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>7</v>
-      </c>
-      <c r="E206" t="s">
-        <v>8</v>
-      </c>
-      <c r="F206" t="s">
-        <v>9</v>
+        <v>235</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="G206">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -5048,16 +5225,13 @@
         <v>2</v>
       </c>
       <c r="B207" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C207" t="s">
-        <v>10</v>
-      </c>
-      <c r="E207" t="s">
-        <v>11</v>
-      </c>
-      <c r="F207" t="s">
-        <v>6</v>
+        <v>237</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -5068,16 +5242,13 @@
         <v>2</v>
       </c>
       <c r="B208" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>12</v>
-      </c>
-      <c r="E208" t="s">
-        <v>13</v>
-      </c>
-      <c r="F208" t="s">
-        <v>6</v>
+        <v>239</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -5088,16 +5259,13 @@
         <v>2</v>
       </c>
       <c r="B209" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C209" t="s">
-        <v>14</v>
-      </c>
-      <c r="E209" t="s">
-        <v>15</v>
-      </c>
-      <c r="F209" t="s">
-        <v>6</v>
+        <v>241</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -5108,16 +5276,13 @@
         <v>2</v>
       </c>
       <c r="B210" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C210" t="s">
-        <v>16</v>
-      </c>
-      <c r="E210" t="s">
-        <v>17</v>
-      </c>
-      <c r="F210" t="s">
-        <v>6</v>
+        <v>243</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -5131,16 +5296,16 @@
         <v>204</v>
       </c>
       <c r="C211" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E211" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F211" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G211">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -5151,10 +5316,10 @@
         <v>204</v>
       </c>
       <c r="C212" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E212" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F212" t="s">
         <v>9</v>
@@ -5171,10 +5336,10 @@
         <v>204</v>
       </c>
       <c r="C213" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
         <v>6</v>
@@ -5191,16 +5356,16 @@
         <v>204</v>
       </c>
       <c r="C214" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E214" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G214">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -5211,16 +5376,16 @@
         <v>204</v>
       </c>
       <c r="C215" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E215" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F215" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G215">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -5231,16 +5396,16 @@
         <v>204</v>
       </c>
       <c r="C216" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E216" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G216">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -5251,16 +5416,16 @@
         <v>204</v>
       </c>
       <c r="C217" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E217" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F217" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -5271,16 +5436,16 @@
         <v>204</v>
       </c>
       <c r="C218" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E218" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F218" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -5291,10 +5456,10 @@
         <v>204</v>
       </c>
       <c r="C219" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E219" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F219" t="s">
         <v>6</v>
@@ -5311,16 +5476,16 @@
         <v>204</v>
       </c>
       <c r="C220" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E220" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F220" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -5331,16 +5496,16 @@
         <v>204</v>
       </c>
       <c r="C221" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E221" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F221" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -5351,16 +5516,16 @@
         <v>204</v>
       </c>
       <c r="C222" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E222" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F222" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G222">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -5371,10 +5536,10 @@
         <v>204</v>
       </c>
       <c r="C223" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E223" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F223" t="s">
         <v>6</v>
@@ -5391,10 +5556,10 @@
         <v>204</v>
       </c>
       <c r="C224" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E224" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F224" t="s">
         <v>6</v>
@@ -5411,10 +5576,10 @@
         <v>204</v>
       </c>
       <c r="C225" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E225" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F225" t="s">
         <v>6</v>
@@ -5431,10 +5596,10 @@
         <v>204</v>
       </c>
       <c r="C226" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E226" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F226" t="s">
         <v>6</v>
@@ -5451,16 +5616,16 @@
         <v>204</v>
       </c>
       <c r="C227" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E227" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F227" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G227">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -5471,10 +5636,10 @@
         <v>204</v>
       </c>
       <c r="C228" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E228" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F228" t="s">
         <v>6</v>
@@ -5491,16 +5656,16 @@
         <v>204</v>
       </c>
       <c r="C229" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E229" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F229" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G229">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -5511,10 +5676,10 @@
         <v>204</v>
       </c>
       <c r="C230" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E230" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F230" t="s">
         <v>6</v>
@@ -5531,10 +5696,10 @@
         <v>204</v>
       </c>
       <c r="C231" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E231" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F231" t="s">
         <v>6</v>
@@ -5548,19 +5713,19 @@
         <v>2</v>
       </c>
       <c r="B232" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C232" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="E232" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F232" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G232">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -5568,13 +5733,13 @@
         <v>2</v>
       </c>
       <c r="B233" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C233" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E233" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F233" t="s">
         <v>9</v>
@@ -5588,19 +5753,19 @@
         <v>2</v>
       </c>
       <c r="B234" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C234" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E234" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F234" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G234">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -5608,36 +5773,36 @@
         <v>2</v>
       </c>
       <c r="B235" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C235" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E235" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F235" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G235">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B236" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C236" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="E236" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F236" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -5645,16 +5810,19 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B237" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C237" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="E237" t="s">
-        <v>100</v>
+        <v>67</v>
+      </c>
+      <c r="F237" t="s">
+        <v>6</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -5662,76 +5830,82 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B238" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C238" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="E238" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="F238" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="G238">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B239" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C239" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="E239" t="s">
-        <v>163</v>
+        <v>35</v>
+      </c>
+      <c r="F239" t="s">
+        <v>9</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B240" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C240" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="E240" t="s">
-        <v>152</v>
+        <v>37</v>
+      </c>
+      <c r="F240" t="s">
+        <v>9</v>
       </c>
       <c r="G240">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B241" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C241" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="E241" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="F241" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="G241">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -5742,10 +5916,13 @@
         <v>208</v>
       </c>
       <c r="C242" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="E242" t="s">
-        <v>165</v>
+        <v>98</v>
+      </c>
+      <c r="F242" t="s">
+        <v>94</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -5759,10 +5936,10 @@
         <v>208</v>
       </c>
       <c r="C243" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="E243" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -5776,13 +5953,16 @@
         <v>208</v>
       </c>
       <c r="C244" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="E244" t="s">
-        <v>202</v>
+        <v>119</v>
+      </c>
+      <c r="F244" t="s">
+        <v>109</v>
       </c>
       <c r="G244">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -5793,10 +5973,10 @@
         <v>208</v>
       </c>
       <c r="C245" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="E245" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -5810,10 +5990,10 @@
         <v>208</v>
       </c>
       <c r="C246" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E246" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -5827,13 +6007,16 @@
         <v>208</v>
       </c>
       <c r="C247" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="E247" t="s">
-        <v>173</v>
+        <v>117</v>
+      </c>
+      <c r="F247" t="s">
+        <v>109</v>
       </c>
       <c r="G247">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -5844,10 +6027,10 @@
         <v>208</v>
       </c>
       <c r="C248" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="E248" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -5861,10 +6044,10 @@
         <v>208</v>
       </c>
       <c r="C249" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="E249" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -5878,10 +6061,10 @@
         <v>208</v>
       </c>
       <c r="C250" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="E250" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -5895,10 +6078,10 @@
         <v>208</v>
       </c>
       <c r="C251" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="E251" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -5912,13 +6095,10 @@
         <v>208</v>
       </c>
       <c r="C252" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="E252" t="s">
-        <v>115</v>
-      </c>
-      <c r="F252" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="G252">
         <v>1</v>
@@ -5932,10 +6112,10 @@
         <v>208</v>
       </c>
       <c r="C253" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="E253" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -5949,13 +6129,10 @@
         <v>208</v>
       </c>
       <c r="C254" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="E254" t="s">
-        <v>111</v>
-      </c>
-      <c r="F254" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -5969,10 +6146,10 @@
         <v>208</v>
       </c>
       <c r="C255" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="E255" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -5986,13 +6163,10 @@
         <v>208</v>
       </c>
       <c r="C256" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="E256" t="s">
-        <v>106</v>
-      </c>
-      <c r="F256" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -6006,16 +6180,13 @@
         <v>208</v>
       </c>
       <c r="C257" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E257" t="s">
-        <v>125</v>
-      </c>
-      <c r="F257" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G257">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -6026,16 +6197,16 @@
         <v>208</v>
       </c>
       <c r="C258" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E258" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F258" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G258">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -6046,16 +6217,13 @@
         <v>208</v>
       </c>
       <c r="C259" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E259" t="s">
-        <v>131</v>
-      </c>
-      <c r="F259" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="G259">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
@@ -6066,10 +6234,13 @@
         <v>208</v>
       </c>
       <c r="C260" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="E260" t="s">
-        <v>184</v>
+        <v>111</v>
+      </c>
+      <c r="F260" t="s">
+        <v>94</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -6083,13 +6254,10 @@
         <v>208</v>
       </c>
       <c r="C261" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="E261" t="s">
-        <v>121</v>
-      </c>
-      <c r="F261" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -6103,10 +6271,13 @@
         <v>208</v>
       </c>
       <c r="C262" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="E262" t="s">
-        <v>156</v>
+        <v>106</v>
+      </c>
+      <c r="F262" t="s">
+        <v>94</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -6120,16 +6291,16 @@
         <v>208</v>
       </c>
       <c r="C263" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E263" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F263" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G263">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -6140,13 +6311,16 @@
         <v>208</v>
       </c>
       <c r="C264" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="E264" t="s">
-        <v>142</v>
+        <v>113</v>
+      </c>
+      <c r="F264" t="s">
+        <v>109</v>
       </c>
       <c r="G264">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
@@ -6157,13 +6331,16 @@
         <v>208</v>
       </c>
       <c r="C265" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E265" t="s">
-        <v>146</v>
+        <v>131</v>
+      </c>
+      <c r="F265" t="s">
+        <v>109</v>
       </c>
       <c r="G265">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
@@ -6174,10 +6351,10 @@
         <v>208</v>
       </c>
       <c r="C266" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="E266" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -6191,16 +6368,16 @@
         <v>208</v>
       </c>
       <c r="C267" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E267" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F267" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G267">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
@@ -6211,10 +6388,10 @@
         <v>208</v>
       </c>
       <c r="C268" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="E268" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -6228,10 +6405,13 @@
         <v>208</v>
       </c>
       <c r="C269" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="E269" t="s">
-        <v>188</v>
+        <v>129</v>
+      </c>
+      <c r="F269" t="s">
+        <v>94</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -6245,10 +6425,10 @@
         <v>208</v>
       </c>
       <c r="C270" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="E270" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -6262,10 +6442,10 @@
         <v>208</v>
       </c>
       <c r="C271" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E271" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -6279,16 +6459,13 @@
         <v>208</v>
       </c>
       <c r="C272" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E272" t="s">
-        <v>133</v>
-      </c>
-      <c r="F272" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="G272">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
@@ -6299,13 +6476,16 @@
         <v>208</v>
       </c>
       <c r="C273" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="E273" t="s">
-        <v>196</v>
+        <v>108</v>
+      </c>
+      <c r="F273" t="s">
+        <v>109</v>
       </c>
       <c r="G273">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
@@ -6316,10 +6496,10 @@
         <v>208</v>
       </c>
       <c r="C274" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="E274" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -6333,10 +6513,10 @@
         <v>208</v>
       </c>
       <c r="C275" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E275" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -6350,10 +6530,10 @@
         <v>208</v>
       </c>
       <c r="C276" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="E276" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -6367,10 +6547,10 @@
         <v>208</v>
       </c>
       <c r="C277" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="E277" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -6384,16 +6564,16 @@
         <v>208</v>
       </c>
       <c r="C278" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E278" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="F278" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G278">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
@@ -6404,10 +6584,10 @@
         <v>208</v>
       </c>
       <c r="C279" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="E279" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -6421,10 +6601,10 @@
         <v>208</v>
       </c>
       <c r="C280" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E280" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -6438,10 +6618,10 @@
         <v>208</v>
       </c>
       <c r="C281" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E281" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -6455,10 +6635,10 @@
         <v>208</v>
       </c>
       <c r="C282" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="E282" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -6472,10 +6652,10 @@
         <v>208</v>
       </c>
       <c r="C283" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E283" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -6489,16 +6669,16 @@
         <v>208</v>
       </c>
       <c r="C284" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E284" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="F284" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G284">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
@@ -6509,10 +6689,10 @@
         <v>208</v>
       </c>
       <c r="C285" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="E285" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -6526,16 +6706,13 @@
         <v>208</v>
       </c>
       <c r="C286" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E286" t="s">
-        <v>192</v>
-      </c>
-      <c r="F286" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="G286">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
@@ -6546,13 +6723,10 @@
         <v>208</v>
       </c>
       <c r="C287" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="E287" t="s">
-        <v>102</v>
-      </c>
-      <c r="F287" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="G287">
         <v>1</v>
@@ -6566,10 +6740,10 @@
         <v>208</v>
       </c>
       <c r="C288" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="E288" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -6583,10 +6757,10 @@
         <v>208</v>
       </c>
       <c r="C289" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E289" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G289">
         <v>1</v>
@@ -6600,13 +6774,16 @@
         <v>208</v>
       </c>
       <c r="C290" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="E290" t="s">
-        <v>190</v>
+        <v>123</v>
+      </c>
+      <c r="F290" t="s">
+        <v>109</v>
       </c>
       <c r="G290">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
@@ -6617,10 +6794,10 @@
         <v>208</v>
       </c>
       <c r="C291" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E291" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -6631,15 +6808,18 @@
         <v>3</v>
       </c>
       <c r="B292" t="s">
-        <v>207</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G292" s="1">
+        <v>208</v>
+      </c>
+      <c r="C292" t="s">
+        <v>191</v>
+      </c>
+      <c r="E292" t="s">
+        <v>192</v>
+      </c>
+      <c r="F292" t="s">
+        <v>109</v>
+      </c>
+      <c r="G292">
         <v>0.25</v>
       </c>
     </row>
@@ -6648,16 +6828,19 @@
         <v>3</v>
       </c>
       <c r="B293" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C293" t="s">
-        <v>70</v>
-      </c>
-      <c r="E293" s="3" t="s">
-        <v>71</v>
+        <v>101</v>
+      </c>
+      <c r="E293" t="s">
+        <v>102</v>
+      </c>
+      <c r="F293" t="s">
+        <v>94</v>
       </c>
       <c r="G293">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
@@ -6665,16 +6848,16 @@
         <v>3</v>
       </c>
       <c r="B294" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C294" t="s">
-        <v>211</v>
-      </c>
-      <c r="E294" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
+      </c>
+      <c r="E294" t="s">
+        <v>160</v>
       </c>
       <c r="G294">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
@@ -6682,13 +6865,13 @@
         <v>3</v>
       </c>
       <c r="B295" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C295" t="s">
-        <v>213</v>
-      </c>
-      <c r="E295" s="3" t="s">
-        <v>214</v>
+        <v>176</v>
+      </c>
+      <c r="E295" t="s">
+        <v>177</v>
       </c>
       <c r="G295">
         <v>1</v>
@@ -6699,16 +6882,16 @@
         <v>3</v>
       </c>
       <c r="B296" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C296" t="s">
-        <v>215</v>
-      </c>
-      <c r="E296" s="3" t="s">
-        <v>216</v>
+        <v>189</v>
+      </c>
+      <c r="E296" t="s">
+        <v>190</v>
       </c>
       <c r="G296">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
@@ -6716,16 +6899,16 @@
         <v>3</v>
       </c>
       <c r="B297" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C297" t="s">
-        <v>76</v>
-      </c>
-      <c r="E297" s="3" t="s">
-        <v>77</v>
+        <v>161</v>
+      </c>
+      <c r="E297" t="s">
+        <v>162</v>
       </c>
       <c r="G297">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
@@ -6735,14 +6918,14 @@
       <c r="B298" t="s">
         <v>207</v>
       </c>
-      <c r="C298" t="s">
-        <v>84</v>
-      </c>
-      <c r="E298" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G298">
-        <v>1</v>
+      <c r="C298" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G298" s="1">
+        <v>0.25</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
@@ -6752,13 +6935,13 @@
       <c r="B299" t="s">
         <v>207</v>
       </c>
-      <c r="C299" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G299" s="1">
+      <c r="C299" t="s">
+        <v>70</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G299">
         <v>0.7</v>
       </c>
     </row>
@@ -6769,13 +6952,13 @@
       <c r="B300" t="s">
         <v>207</v>
       </c>
-      <c r="C300" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G300" s="1">
+      <c r="C300" t="s">
+        <v>211</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G300">
         <v>0.7</v>
       </c>
     </row>
@@ -6786,13 +6969,13 @@
       <c r="B301" t="s">
         <v>207</v>
       </c>
-      <c r="C301" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G301" s="1">
+      <c r="C301" t="s">
+        <v>213</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G301">
         <v>1</v>
       </c>
     </row>
@@ -6804,10 +6987,10 @@
         <v>207</v>
       </c>
       <c r="C302" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G302">
         <v>0.7</v>
@@ -6821,10 +7004,10 @@
         <v>207</v>
       </c>
       <c r="C303" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G303">
         <v>0.7</v>
@@ -6838,13 +7021,13 @@
         <v>207</v>
       </c>
       <c r="C304" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G304">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
@@ -6855,13 +7038,13 @@
         <v>207</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G305" s="1">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
@@ -6872,13 +7055,13 @@
         <v>207</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G306" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
@@ -6888,14 +7071,14 @@
       <c r="B307" t="s">
         <v>207</v>
       </c>
-      <c r="C307" t="s">
-        <v>68</v>
-      </c>
-      <c r="E307" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G307">
-        <v>0.7</v>
+      <c r="C307" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G307" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
@@ -6906,10 +7089,10 @@
         <v>207</v>
       </c>
       <c r="C308" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G308">
         <v>0.7</v>
@@ -6923,13 +7106,13 @@
         <v>207</v>
       </c>
       <c r="C309" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="G309">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
@@ -6939,14 +7122,14 @@
       <c r="B310" t="s">
         <v>207</v>
       </c>
-      <c r="C310" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G310" s="1">
-        <v>0.25</v>
+      <c r="C310" t="s">
+        <v>82</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G310">
+        <v>0.7</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
@@ -6956,14 +7139,14 @@
       <c r="B311" t="s">
         <v>207</v>
       </c>
-      <c r="C311" t="s">
-        <v>78</v>
-      </c>
-      <c r="E311" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G311">
-        <v>1</v>
+      <c r="C311" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G311" s="1">
+        <v>0.25</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
@@ -6973,14 +7156,14 @@
       <c r="B312" t="s">
         <v>207</v>
       </c>
-      <c r="C312" t="s">
-        <v>88</v>
-      </c>
-      <c r="E312" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G312">
-        <v>0.7</v>
+      <c r="C312" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G312" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
@@ -6991,13 +7174,13 @@
         <v>207</v>
       </c>
       <c r="C313" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="G313">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
@@ -7008,13 +7191,13 @@
         <v>207</v>
       </c>
       <c r="C314" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="G314">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
@@ -7025,10 +7208,10 @@
         <v>207</v>
       </c>
       <c r="C315" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="G315">
         <v>1</v>
@@ -7041,14 +7224,14 @@
       <c r="B316" t="s">
         <v>207</v>
       </c>
-      <c r="C316" t="s">
-        <v>90</v>
-      </c>
-      <c r="E316" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G316">
-        <v>0.7</v>
+      <c r="C316" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G316" s="1">
+        <v>0.25</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
@@ -7059,10 +7242,10 @@
         <v>207</v>
       </c>
       <c r="C317" t="s">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="G317">
         <v>1</v>
@@ -7076,13 +7259,13 @@
         <v>207</v>
       </c>
       <c r="C318" t="s">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="G318">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
@@ -7093,10 +7276,10 @@
         <v>207</v>
       </c>
       <c r="C319" t="s">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G319">
         <v>1</v>
@@ -7110,10 +7293,10 @@
         <v>207</v>
       </c>
       <c r="C320" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="G320">
         <v>1</v>
@@ -7127,10 +7310,10 @@
         <v>207</v>
       </c>
       <c r="C321" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="G321">
         <v>1</v>
@@ -7141,19 +7324,16 @@
         <v>3</v>
       </c>
       <c r="B322" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C322" t="s">
-        <v>4</v>
-      </c>
-      <c r="E322" t="s">
-        <v>5</v>
-      </c>
-      <c r="F322" t="s">
-        <v>6</v>
+        <v>90</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G322">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
@@ -7161,19 +7341,16 @@
         <v>3</v>
       </c>
       <c r="B323" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C323" t="s">
-        <v>7</v>
-      </c>
-      <c r="E323" t="s">
-        <v>8</v>
-      </c>
-      <c r="F323" t="s">
-        <v>9</v>
+        <v>235</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="G323">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
@@ -7181,16 +7358,13 @@
         <v>3</v>
       </c>
       <c r="B324" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C324" t="s">
-        <v>10</v>
-      </c>
-      <c r="E324" t="s">
-        <v>11</v>
-      </c>
-      <c r="F324" t="s">
-        <v>6</v>
+        <v>237</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="G324">
         <v>1</v>
@@ -7201,16 +7375,13 @@
         <v>3</v>
       </c>
       <c r="B325" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C325" t="s">
-        <v>12</v>
-      </c>
-      <c r="E325" t="s">
-        <v>13</v>
-      </c>
-      <c r="F325" t="s">
-        <v>6</v>
+        <v>239</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="G325">
         <v>1</v>
@@ -7221,16 +7392,13 @@
         <v>3</v>
       </c>
       <c r="B326" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C326" t="s">
-        <v>14</v>
-      </c>
-      <c r="E326" t="s">
-        <v>15</v>
-      </c>
-      <c r="F326" t="s">
-        <v>6</v>
+        <v>241</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="G326">
         <v>1</v>
@@ -7241,16 +7409,13 @@
         <v>3</v>
       </c>
       <c r="B327" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C327" t="s">
-        <v>16</v>
-      </c>
-      <c r="E327" t="s">
-        <v>17</v>
-      </c>
-      <c r="F327" t="s">
-        <v>6</v>
+        <v>243</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="G327">
         <v>1</v>
@@ -7264,16 +7429,16 @@
         <v>204</v>
       </c>
       <c r="C328" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E328" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F328" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G328">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
@@ -7284,10 +7449,10 @@
         <v>204</v>
       </c>
       <c r="C329" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E329" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F329" t="s">
         <v>9</v>
@@ -7304,10 +7469,10 @@
         <v>204</v>
       </c>
       <c r="C330" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E330" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F330" t="s">
         <v>6</v>
@@ -7324,16 +7489,16 @@
         <v>204</v>
       </c>
       <c r="C331" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E331" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F331" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G331">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
@@ -7344,16 +7509,16 @@
         <v>204</v>
       </c>
       <c r="C332" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E332" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F332" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G332">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
@@ -7364,16 +7529,16 @@
         <v>204</v>
       </c>
       <c r="C333" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E333" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F333" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G333">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
@@ -7384,16 +7549,16 @@
         <v>204</v>
       </c>
       <c r="C334" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E334" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F334" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G334">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
@@ -7404,16 +7569,16 @@
         <v>204</v>
       </c>
       <c r="C335" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E335" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F335" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G335">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
@@ -7424,10 +7589,10 @@
         <v>204</v>
       </c>
       <c r="C336" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E336" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F336" t="s">
         <v>6</v>
@@ -7444,16 +7609,16 @@
         <v>204</v>
       </c>
       <c r="C337" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E337" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F337" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G337">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
@@ -7464,16 +7629,16 @@
         <v>204</v>
       </c>
       <c r="C338" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E338" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F338" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G338">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
@@ -7484,16 +7649,16 @@
         <v>204</v>
       </c>
       <c r="C339" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E339" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F339" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G339">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
@@ -7504,10 +7669,10 @@
         <v>204</v>
       </c>
       <c r="C340" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E340" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F340" t="s">
         <v>6</v>
@@ -7524,10 +7689,10 @@
         <v>204</v>
       </c>
       <c r="C341" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E341" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F341" t="s">
         <v>6</v>
@@ -7544,10 +7709,10 @@
         <v>204</v>
       </c>
       <c r="C342" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E342" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F342" t="s">
         <v>6</v>
@@ -7564,10 +7729,10 @@
         <v>204</v>
       </c>
       <c r="C343" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E343" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F343" t="s">
         <v>6</v>
@@ -7584,16 +7749,16 @@
         <v>204</v>
       </c>
       <c r="C344" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E344" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F344" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G344">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
@@ -7604,10 +7769,10 @@
         <v>204</v>
       </c>
       <c r="C345" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E345" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F345" t="s">
         <v>6</v>
@@ -7624,16 +7789,16 @@
         <v>204</v>
       </c>
       <c r="C346" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E346" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F346" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G346">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
@@ -7644,10 +7809,10 @@
         <v>204</v>
       </c>
       <c r="C347" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E347" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F347" t="s">
         <v>6</v>
@@ -7664,10 +7829,10 @@
         <v>204</v>
       </c>
       <c r="C348" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E348" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F348" t="s">
         <v>6</v>
@@ -7681,19 +7846,19 @@
         <v>3</v>
       </c>
       <c r="B349" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C349" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="E349" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F349" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G349">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
@@ -7701,13 +7866,13 @@
         <v>3</v>
       </c>
       <c r="B350" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C350" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E350" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F350" t="s">
         <v>9</v>
@@ -7721,19 +7886,19 @@
         <v>3</v>
       </c>
       <c r="B351" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C351" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E351" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F351" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G351">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
@@ -7741,36 +7906,36 @@
         <v>3</v>
       </c>
       <c r="B352" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C352" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E352" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F352" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G352">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B353" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C353" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="E353" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F353" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="G353">
         <v>1</v>
@@ -7778,16 +7943,19 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B354" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C354" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="E354" t="s">
-        <v>100</v>
+        <v>67</v>
+      </c>
+      <c r="F354" t="s">
+        <v>6</v>
       </c>
       <c r="G354">
         <v>1</v>
@@ -7795,76 +7963,82 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B355" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C355" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="E355" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="F355" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="G355">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B356" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C356" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="E356" t="s">
-        <v>163</v>
+        <v>35</v>
+      </c>
+      <c r="F356" t="s">
+        <v>9</v>
       </c>
       <c r="G356">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B357" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C357" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="E357" t="s">
-        <v>152</v>
+        <v>37</v>
+      </c>
+      <c r="F357" t="s">
+        <v>9</v>
       </c>
       <c r="G357">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B358" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C358" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="E358" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="F358" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="G358">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
@@ -7875,10 +8049,13 @@
         <v>208</v>
       </c>
       <c r="C359" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="E359" t="s">
-        <v>165</v>
+        <v>98</v>
+      </c>
+      <c r="F359" t="s">
+        <v>94</v>
       </c>
       <c r="G359">
         <v>1</v>
@@ -7892,10 +8069,10 @@
         <v>208</v>
       </c>
       <c r="C360" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="E360" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="G360">
         <v>1</v>
@@ -7909,13 +8086,16 @@
         <v>208</v>
       </c>
       <c r="C361" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="E361" t="s">
-        <v>202</v>
+        <v>119</v>
+      </c>
+      <c r="F361" t="s">
+        <v>109</v>
       </c>
       <c r="G361">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
@@ -7926,10 +8106,10 @@
         <v>208</v>
       </c>
       <c r="C362" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="E362" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="G362">
         <v>1</v>
@@ -7943,10 +8123,10 @@
         <v>208</v>
       </c>
       <c r="C363" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E363" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G363">
         <v>1</v>
@@ -7960,13 +8140,16 @@
         <v>208</v>
       </c>
       <c r="C364" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="E364" t="s">
-        <v>173</v>
+        <v>117</v>
+      </c>
+      <c r="F364" t="s">
+        <v>109</v>
       </c>
       <c r="G364">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
@@ -7977,10 +8160,10 @@
         <v>208</v>
       </c>
       <c r="C365" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="E365" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="G365">
         <v>1</v>
@@ -7994,10 +8177,10 @@
         <v>208</v>
       </c>
       <c r="C366" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="E366" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="G366">
         <v>1</v>
@@ -8011,10 +8194,10 @@
         <v>208</v>
       </c>
       <c r="C367" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="E367" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="G367">
         <v>1</v>
@@ -8028,10 +8211,10 @@
         <v>208</v>
       </c>
       <c r="C368" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="E368" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="G368">
         <v>1</v>
@@ -8045,13 +8228,10 @@
         <v>208</v>
       </c>
       <c r="C369" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="E369" t="s">
-        <v>115</v>
-      </c>
-      <c r="F369" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="G369">
         <v>1</v>
@@ -8065,10 +8245,10 @@
         <v>208</v>
       </c>
       <c r="C370" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="E370" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="G370">
         <v>1</v>
@@ -8082,13 +8262,10 @@
         <v>208</v>
       </c>
       <c r="C371" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="E371" t="s">
-        <v>111</v>
-      </c>
-      <c r="F371" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="G371">
         <v>1</v>
@@ -8102,10 +8279,10 @@
         <v>208</v>
       </c>
       <c r="C372" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="E372" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="G372">
         <v>1</v>
@@ -8119,13 +8296,10 @@
         <v>208</v>
       </c>
       <c r="C373" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="E373" t="s">
-        <v>106</v>
-      </c>
-      <c r="F373" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="G373">
         <v>1</v>
@@ -8139,16 +8313,13 @@
         <v>208</v>
       </c>
       <c r="C374" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E374" t="s">
-        <v>125</v>
-      </c>
-      <c r="F374" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G374">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
@@ -8159,16 +8330,16 @@
         <v>208</v>
       </c>
       <c r="C375" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E375" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F375" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G375">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
@@ -8179,16 +8350,13 @@
         <v>208</v>
       </c>
       <c r="C376" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E376" t="s">
-        <v>131</v>
-      </c>
-      <c r="F376" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="G376">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
@@ -8199,10 +8367,13 @@
         <v>208</v>
       </c>
       <c r="C377" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="E377" t="s">
-        <v>184</v>
+        <v>111</v>
+      </c>
+      <c r="F377" t="s">
+        <v>94</v>
       </c>
       <c r="G377">
         <v>1</v>
@@ -8216,13 +8387,10 @@
         <v>208</v>
       </c>
       <c r="C378" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="E378" t="s">
-        <v>121</v>
-      </c>
-      <c r="F378" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="G378">
         <v>1</v>
@@ -8236,10 +8404,13 @@
         <v>208</v>
       </c>
       <c r="C379" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="E379" t="s">
-        <v>156</v>
+        <v>106</v>
+      </c>
+      <c r="F379" t="s">
+        <v>94</v>
       </c>
       <c r="G379">
         <v>1</v>
@@ -8253,16 +8424,16 @@
         <v>208</v>
       </c>
       <c r="C380" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E380" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F380" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G380">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
@@ -8273,13 +8444,16 @@
         <v>208</v>
       </c>
       <c r="C381" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="E381" t="s">
-        <v>142</v>
+        <v>113</v>
+      </c>
+      <c r="F381" t="s">
+        <v>109</v>
       </c>
       <c r="G381">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
@@ -8290,13 +8464,16 @@
         <v>208</v>
       </c>
       <c r="C382" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E382" t="s">
-        <v>146</v>
+        <v>131</v>
+      </c>
+      <c r="F382" t="s">
+        <v>109</v>
       </c>
       <c r="G382">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
@@ -8307,10 +8484,10 @@
         <v>208</v>
       </c>
       <c r="C383" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="E383" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="G383">
         <v>1</v>
@@ -8324,16 +8501,16 @@
         <v>208</v>
       </c>
       <c r="C384" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E384" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F384" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G384">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
@@ -8344,10 +8521,10 @@
         <v>208</v>
       </c>
       <c r="C385" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="E385" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="G385">
         <v>1</v>
@@ -8361,10 +8538,13 @@
         <v>208</v>
       </c>
       <c r="C386" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="E386" t="s">
-        <v>188</v>
+        <v>129</v>
+      </c>
+      <c r="F386" t="s">
+        <v>94</v>
       </c>
       <c r="G386">
         <v>1</v>
@@ -8378,10 +8558,10 @@
         <v>208</v>
       </c>
       <c r="C387" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="E387" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="G387">
         <v>1</v>
@@ -8395,10 +8575,10 @@
         <v>208</v>
       </c>
       <c r="C388" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E388" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="G388">
         <v>1</v>
@@ -8412,16 +8592,13 @@
         <v>208</v>
       </c>
       <c r="C389" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E389" t="s">
-        <v>133</v>
-      </c>
-      <c r="F389" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="G389">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
@@ -8432,13 +8609,16 @@
         <v>208</v>
       </c>
       <c r="C390" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="E390" t="s">
-        <v>196</v>
+        <v>108</v>
+      </c>
+      <c r="F390" t="s">
+        <v>109</v>
       </c>
       <c r="G390">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
@@ -8449,10 +8629,10 @@
         <v>208</v>
       </c>
       <c r="C391" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="E391" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G391">
         <v>1</v>
@@ -8466,10 +8646,10 @@
         <v>208</v>
       </c>
       <c r="C392" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E392" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G392">
         <v>1</v>
@@ -8483,10 +8663,10 @@
         <v>208</v>
       </c>
       <c r="C393" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="E393" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="G393">
         <v>1</v>
@@ -8500,10 +8680,10 @@
         <v>208</v>
       </c>
       <c r="C394" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="E394" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="G394">
         <v>1</v>
@@ -8517,16 +8697,16 @@
         <v>208</v>
       </c>
       <c r="C395" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E395" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="F395" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G395">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
@@ -8537,10 +8717,10 @@
         <v>208</v>
       </c>
       <c r="C396" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="E396" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="G396">
         <v>1</v>
@@ -8554,10 +8734,10 @@
         <v>208</v>
       </c>
       <c r="C397" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E397" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G397">
         <v>1</v>
@@ -8571,10 +8751,10 @@
         <v>208</v>
       </c>
       <c r="C398" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E398" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="G398">
         <v>1</v>
@@ -8588,10 +8768,10 @@
         <v>208</v>
       </c>
       <c r="C399" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="E399" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="G399">
         <v>1</v>
@@ -8605,10 +8785,10 @@
         <v>208</v>
       </c>
       <c r="C400" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E400" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G400">
         <v>1</v>
@@ -8622,16 +8802,16 @@
         <v>208</v>
       </c>
       <c r="C401" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E401" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="F401" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G401">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
@@ -8642,10 +8822,10 @@
         <v>208</v>
       </c>
       <c r="C402" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="E402" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G402">
         <v>1</v>
@@ -8659,16 +8839,13 @@
         <v>208</v>
       </c>
       <c r="C403" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E403" t="s">
-        <v>192</v>
-      </c>
-      <c r="F403" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="G403">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
@@ -8679,13 +8856,10 @@
         <v>208</v>
       </c>
       <c r="C404" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="E404" t="s">
-        <v>102</v>
-      </c>
-      <c r="F404" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="G404">
         <v>1</v>
@@ -8699,10 +8873,10 @@
         <v>208</v>
       </c>
       <c r="C405" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="E405" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="G405">
         <v>1</v>
@@ -8716,10 +8890,10 @@
         <v>208</v>
       </c>
       <c r="C406" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E406" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G406">
         <v>1</v>
@@ -8733,13 +8907,16 @@
         <v>208</v>
       </c>
       <c r="C407" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="E407" t="s">
-        <v>190</v>
+        <v>123</v>
+      </c>
+      <c r="F407" t="s">
+        <v>109</v>
       </c>
       <c r="G407">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
@@ -8750,10 +8927,10 @@
         <v>208</v>
       </c>
       <c r="C408" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E408" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G408">
         <v>1</v>
@@ -8764,15 +8941,18 @@
         <v>4</v>
       </c>
       <c r="B409" t="s">
-        <v>207</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E409" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G409" s="1">
+        <v>208</v>
+      </c>
+      <c r="C409" t="s">
+        <v>191</v>
+      </c>
+      <c r="E409" t="s">
+        <v>192</v>
+      </c>
+      <c r="F409" t="s">
+        <v>109</v>
+      </c>
+      <c r="G409">
         <v>0.25</v>
       </c>
     </row>
@@ -8781,16 +8961,19 @@
         <v>4</v>
       </c>
       <c r="B410" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C410" t="s">
-        <v>70</v>
-      </c>
-      <c r="E410" s="3" t="s">
-        <v>71</v>
+        <v>101</v>
+      </c>
+      <c r="E410" t="s">
+        <v>102</v>
+      </c>
+      <c r="F410" t="s">
+        <v>94</v>
       </c>
       <c r="G410">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
@@ -8798,16 +8981,16 @@
         <v>4</v>
       </c>
       <c r="B411" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C411" t="s">
-        <v>211</v>
-      </c>
-      <c r="E411" s="3" t="s">
-        <v>212</v>
+        <v>159</v>
+      </c>
+      <c r="E411" t="s">
+        <v>160</v>
       </c>
       <c r="G411">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
@@ -8815,13 +8998,13 @@
         <v>4</v>
       </c>
       <c r="B412" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C412" t="s">
-        <v>213</v>
-      </c>
-      <c r="E412" s="3" t="s">
-        <v>214</v>
+        <v>176</v>
+      </c>
+      <c r="E412" t="s">
+        <v>177</v>
       </c>
       <c r="G412">
         <v>1</v>
@@ -8832,16 +9015,16 @@
         <v>4</v>
       </c>
       <c r="B413" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C413" t="s">
-        <v>215</v>
-      </c>
-      <c r="E413" s="3" t="s">
-        <v>216</v>
+        <v>189</v>
+      </c>
+      <c r="E413" t="s">
+        <v>190</v>
       </c>
       <c r="G413">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
@@ -8849,16 +9032,16 @@
         <v>4</v>
       </c>
       <c r="B414" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C414" t="s">
-        <v>76</v>
-      </c>
-      <c r="E414" s="3" t="s">
-        <v>77</v>
+        <v>161</v>
+      </c>
+      <c r="E414" t="s">
+        <v>162</v>
       </c>
       <c r="G414">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
@@ -8868,14 +9051,14 @@
       <c r="B415" t="s">
         <v>207</v>
       </c>
-      <c r="C415" t="s">
-        <v>84</v>
-      </c>
-      <c r="E415" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G415">
-        <v>1</v>
+      <c r="C415" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G415" s="1">
+        <v>0.25</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
@@ -8885,13 +9068,13 @@
       <c r="B416" t="s">
         <v>207</v>
       </c>
-      <c r="C416" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E416" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G416" s="1">
+      <c r="C416" t="s">
+        <v>70</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G416">
         <v>0.7</v>
       </c>
     </row>
@@ -8902,13 +9085,13 @@
       <c r="B417" t="s">
         <v>207</v>
       </c>
-      <c r="C417" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E417" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G417" s="1">
+      <c r="C417" t="s">
+        <v>211</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G417">
         <v>0.7</v>
       </c>
     </row>
@@ -8919,13 +9102,13 @@
       <c r="B418" t="s">
         <v>207</v>
       </c>
-      <c r="C418" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E418" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G418" s="1">
+      <c r="C418" t="s">
+        <v>213</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G418">
         <v>1</v>
       </c>
     </row>
@@ -8937,10 +9120,10 @@
         <v>207</v>
       </c>
       <c r="C419" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G419">
         <v>0.7</v>
@@ -8954,10 +9137,10 @@
         <v>207</v>
       </c>
       <c r="C420" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G420">
         <v>0.7</v>
@@ -8971,13 +9154,13 @@
         <v>207</v>
       </c>
       <c r="C421" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G421">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.2">
@@ -8988,13 +9171,13 @@
         <v>207</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G422" s="1">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
@@ -9005,13 +9188,13 @@
         <v>207</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G423" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
@@ -9021,14 +9204,14 @@
       <c r="B424" t="s">
         <v>207</v>
       </c>
-      <c r="C424" t="s">
-        <v>68</v>
-      </c>
-      <c r="E424" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G424">
-        <v>0.7</v>
+      <c r="C424" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G424" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.2">
@@ -9039,10 +9222,10 @@
         <v>207</v>
       </c>
       <c r="C425" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G425">
         <v>0.7</v>
@@ -9056,13 +9239,13 @@
         <v>207</v>
       </c>
       <c r="C426" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="G426">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.2">
@@ -9072,14 +9255,14 @@
       <c r="B427" t="s">
         <v>207</v>
       </c>
-      <c r="C427" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E427" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G427" s="1">
-        <v>0.25</v>
+      <c r="C427" t="s">
+        <v>82</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G427">
+        <v>0.7</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.2">
@@ -9089,14 +9272,14 @@
       <c r="B428" t="s">
         <v>207</v>
       </c>
-      <c r="C428" t="s">
-        <v>78</v>
-      </c>
-      <c r="E428" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G428">
-        <v>1</v>
+      <c r="C428" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G428" s="1">
+        <v>0.25</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
@@ -9106,14 +9289,14 @@
       <c r="B429" t="s">
         <v>207</v>
       </c>
-      <c r="C429" t="s">
-        <v>88</v>
-      </c>
-      <c r="E429" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G429">
-        <v>0.7</v>
+      <c r="C429" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G429" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.2">
@@ -9124,13 +9307,13 @@
         <v>207</v>
       </c>
       <c r="C430" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="G430">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.2">
@@ -9141,13 +9324,13 @@
         <v>207</v>
       </c>
       <c r="C431" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="G431">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.2">
@@ -9158,10 +9341,10 @@
         <v>207</v>
       </c>
       <c r="C432" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="G432">
         <v>1</v>
@@ -9174,14 +9357,14 @@
       <c r="B433" t="s">
         <v>207</v>
       </c>
-      <c r="C433" t="s">
-        <v>90</v>
-      </c>
-      <c r="E433" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G433">
-        <v>0.7</v>
+      <c r="C433" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G433" s="1">
+        <v>0.25</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.2">
@@ -9192,10 +9375,10 @@
         <v>207</v>
       </c>
       <c r="C434" t="s">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="E434" s="3" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="G434">
         <v>1</v>
@@ -9209,13 +9392,13 @@
         <v>207</v>
       </c>
       <c r="C435" t="s">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="E435" s="3" t="s">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="G435">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.2">
@@ -9226,10 +9409,10 @@
         <v>207</v>
       </c>
       <c r="C436" t="s">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G436">
         <v>1</v>
@@ -9243,10 +9426,10 @@
         <v>207</v>
       </c>
       <c r="C437" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="G437">
         <v>1</v>
@@ -9260,10 +9443,10 @@
         <v>207</v>
       </c>
       <c r="C438" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="G438">
         <v>1</v>
@@ -9274,19 +9457,16 @@
         <v>4</v>
       </c>
       <c r="B439" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C439" t="s">
-        <v>4</v>
-      </c>
-      <c r="E439" t="s">
-        <v>5</v>
-      </c>
-      <c r="F439" t="s">
-        <v>6</v>
+        <v>90</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G439">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.2">
@@ -9294,19 +9474,16 @@
         <v>4</v>
       </c>
       <c r="B440" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C440" t="s">
-        <v>7</v>
-      </c>
-      <c r="E440" t="s">
-        <v>8</v>
-      </c>
-      <c r="F440" t="s">
-        <v>9</v>
+        <v>235</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="G440">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.2">
@@ -9314,16 +9491,13 @@
         <v>4</v>
       </c>
       <c r="B441" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C441" t="s">
-        <v>10</v>
-      </c>
-      <c r="E441" t="s">
-        <v>11</v>
-      </c>
-      <c r="F441" t="s">
-        <v>6</v>
+        <v>237</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="G441">
         <v>1</v>
@@ -9334,16 +9508,13 @@
         <v>4</v>
       </c>
       <c r="B442" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C442" t="s">
-        <v>12</v>
-      </c>
-      <c r="E442" t="s">
-        <v>13</v>
-      </c>
-      <c r="F442" t="s">
-        <v>6</v>
+        <v>239</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="G442">
         <v>1</v>
@@ -9354,16 +9525,13 @@
         <v>4</v>
       </c>
       <c r="B443" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C443" t="s">
-        <v>14</v>
-      </c>
-      <c r="E443" t="s">
-        <v>15</v>
-      </c>
-      <c r="F443" t="s">
-        <v>6</v>
+        <v>241</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="G443">
         <v>1</v>
@@ -9374,16 +9542,13 @@
         <v>4</v>
       </c>
       <c r="B444" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C444" t="s">
-        <v>16</v>
-      </c>
-      <c r="E444" t="s">
-        <v>17</v>
-      </c>
-      <c r="F444" t="s">
-        <v>6</v>
+        <v>243</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="G444">
         <v>1</v>
@@ -9397,16 +9562,16 @@
         <v>204</v>
       </c>
       <c r="C445" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E445" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F445" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G445">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
@@ -9417,10 +9582,10 @@
         <v>204</v>
       </c>
       <c r="C446" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E446" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F446" t="s">
         <v>9</v>
@@ -9437,10 +9602,10 @@
         <v>204</v>
       </c>
       <c r="C447" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E447" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F447" t="s">
         <v>6</v>
@@ -9457,16 +9622,16 @@
         <v>204</v>
       </c>
       <c r="C448" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E448" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F448" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G448">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.2">
@@ -9477,16 +9642,16 @@
         <v>204</v>
       </c>
       <c r="C449" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E449" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F449" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G449">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.2">
@@ -9497,16 +9662,16 @@
         <v>204</v>
       </c>
       <c r="C450" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E450" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F450" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G450">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.2">
@@ -9517,16 +9682,16 @@
         <v>204</v>
       </c>
       <c r="C451" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E451" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F451" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G451">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.2">
@@ -9537,16 +9702,16 @@
         <v>204</v>
       </c>
       <c r="C452" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E452" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F452" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G452">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.2">
@@ -9557,10 +9722,10 @@
         <v>204</v>
       </c>
       <c r="C453" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E453" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F453" t="s">
         <v>6</v>
@@ -9577,16 +9742,16 @@
         <v>204</v>
       </c>
       <c r="C454" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E454" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F454" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G454">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.2">
@@ -9597,16 +9762,16 @@
         <v>204</v>
       </c>
       <c r="C455" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E455" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F455" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G455">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.2">
@@ -9617,16 +9782,16 @@
         <v>204</v>
       </c>
       <c r="C456" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E456" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F456" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G456">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.2">
@@ -9637,10 +9802,10 @@
         <v>204</v>
       </c>
       <c r="C457" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E457" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F457" t="s">
         <v>6</v>
@@ -9657,10 +9822,10 @@
         <v>204</v>
       </c>
       <c r="C458" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E458" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F458" t="s">
         <v>6</v>
@@ -9677,10 +9842,10 @@
         <v>204</v>
       </c>
       <c r="C459" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E459" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F459" t="s">
         <v>6</v>
@@ -9697,10 +9862,10 @@
         <v>204</v>
       </c>
       <c r="C460" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E460" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F460" t="s">
         <v>6</v>
@@ -9717,16 +9882,16 @@
         <v>204</v>
       </c>
       <c r="C461" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E461" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F461" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G461">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.2">
@@ -9737,10 +9902,10 @@
         <v>204</v>
       </c>
       <c r="C462" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E462" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F462" t="s">
         <v>6</v>
@@ -9757,16 +9922,16 @@
         <v>204</v>
       </c>
       <c r="C463" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E463" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F463" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G463">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.2">
@@ -9777,10 +9942,10 @@
         <v>204</v>
       </c>
       <c r="C464" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E464" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F464" t="s">
         <v>6</v>
@@ -9797,10 +9962,10 @@
         <v>204</v>
       </c>
       <c r="C465" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E465" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F465" t="s">
         <v>6</v>
@@ -9814,19 +9979,19 @@
         <v>4</v>
       </c>
       <c r="B466" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C466" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="E466" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F466" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G466">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.2">
@@ -9834,13 +9999,13 @@
         <v>4</v>
       </c>
       <c r="B467" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C467" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E467" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F467" t="s">
         <v>9</v>
@@ -9854,19 +10019,19 @@
         <v>4</v>
       </c>
       <c r="B468" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C468" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E468" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F468" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G468">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.2">
@@ -9874,26 +10039,146 @@
         <v>4</v>
       </c>
       <c r="B469" t="s">
+        <v>204</v>
+      </c>
+      <c r="C469" t="s">
+        <v>62</v>
+      </c>
+      <c r="E469" t="s">
+        <v>63</v>
+      </c>
+      <c r="F469" t="s">
+        <v>9</v>
+      </c>
+      <c r="G469">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>4</v>
+      </c>
+      <c r="B470" t="s">
+        <v>204</v>
+      </c>
+      <c r="C470" t="s">
+        <v>64</v>
+      </c>
+      <c r="E470" t="s">
+        <v>65</v>
+      </c>
+      <c r="F470" t="s">
+        <v>6</v>
+      </c>
+      <c r="G470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>4</v>
+      </c>
+      <c r="B471" t="s">
+        <v>204</v>
+      </c>
+      <c r="C471" t="s">
+        <v>66</v>
+      </c>
+      <c r="E471" t="s">
+        <v>67</v>
+      </c>
+      <c r="F471" t="s">
+        <v>6</v>
+      </c>
+      <c r="G471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>4</v>
+      </c>
+      <c r="B472" t="s">
         <v>205</v>
       </c>
-      <c r="C469" t="s">
+      <c r="C472" t="s">
+        <v>206</v>
+      </c>
+      <c r="E472" t="s">
+        <v>24</v>
+      </c>
+      <c r="F472" t="s">
+        <v>25</v>
+      </c>
+      <c r="G472">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>4</v>
+      </c>
+      <c r="B473" t="s">
+        <v>205</v>
+      </c>
+      <c r="C473" t="s">
+        <v>34</v>
+      </c>
+      <c r="E473" t="s">
+        <v>35</v>
+      </c>
+      <c r="F473" t="s">
+        <v>9</v>
+      </c>
+      <c r="G473">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>4</v>
+      </c>
+      <c r="B474" t="s">
+        <v>205</v>
+      </c>
+      <c r="C474" t="s">
+        <v>36</v>
+      </c>
+      <c r="E474" t="s">
+        <v>37</v>
+      </c>
+      <c r="F474" t="s">
+        <v>9</v>
+      </c>
+      <c r="G474">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>4</v>
+      </c>
+      <c r="B475" t="s">
+        <v>205</v>
+      </c>
+      <c r="C475" t="s">
         <v>46</v>
       </c>
-      <c r="E469" t="s">
+      <c r="E475" t="s">
         <v>47</v>
       </c>
-      <c r="F469" t="s">
+      <c r="F475" t="s">
         <v>25</v>
       </c>
-      <c r="G469">
+      <c r="G475">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H417">
-    <sortCondition ref="A2:A417"/>
-    <sortCondition ref="B2:B417"/>
-    <sortCondition ref="D2:D417"/>
+  <sortState ref="A2:G469">
+    <sortCondition ref="A2:A469"/>
+    <sortCondition ref="B2:B469"/>
+    <sortCondition ref="D2:D469"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
